--- a/Team-Data/2012-13/4-9-2012-13.xlsx
+++ b/Team-Data/2012-13/4-9-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -756,7 +823,7 @@
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
@@ -774,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -926,10 +993,10 @@
         <v>-0.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>14</v>
@@ -944,7 +1011,7 @@
         <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
         <v>7</v>
@@ -956,10 +1023,10 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP3" t="n">
         <v>19</v>
@@ -995,13 +1062,13 @@
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB3" t="n">
         <v>19</v>
       </c>
       <c r="BC3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="n">
         <v>32</v>
       </c>
       <c r="G4" t="n">
-        <v>0.584</v>
+        <v>0.579</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J4" t="n">
-        <v>79.59999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L4" t="n">
         <v>7.6</v>
@@ -1060,7 +1127,7 @@
         <v>21.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O4" t="n">
         <v>17.5</v>
@@ -1069,22 +1136,22 @@
         <v>23.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="R4" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="S4" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="T4" t="n">
-        <v>43</v>
+        <v>42.6</v>
       </c>
       <c r="U4" t="n">
         <v>20.3</v>
       </c>
       <c r="V4" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W4" t="n">
         <v>7.1</v>
@@ -1099,16 +1166,16 @@
         <v>18.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1126,10 +1193,10 @@
         <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
@@ -1138,10 +1205,10 @@
         <v>8</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
         <v>7</v>
@@ -1150,10 +1217,10 @@
         <v>24</v>
       </c>
       <c r="AR4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT4" t="n">
         <v>10</v>
@@ -1162,10 +1229,10 @@
         <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX4" t="n">
         <v>17</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -1212,43 +1279,43 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" t="n">
         <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" t="n">
-        <v>0.231</v>
+        <v>0.234</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="J5" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.421</v>
+        <v>0.422</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.332</v>
+        <v>0.334</v>
       </c>
       <c r="O5" t="n">
         <v>19</v>
       </c>
       <c r="P5" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q5" t="n">
         <v>0.749</v>
@@ -1263,13 +1330,13 @@
         <v>40.3</v>
       </c>
       <c r="U5" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="V5" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W5" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X5" t="n">
         <v>5.9</v>
@@ -1284,19 +1351,19 @@
         <v>21.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.09999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-9.800000000000001</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
       </c>
       <c r="AF5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
         <v>30</v>
@@ -1314,16 +1381,16 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM5" t="n">
         <v>27</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>28</v>
       </c>
       <c r="AN5" t="n">
         <v>27</v>
       </c>
       <c r="AO5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP5" t="n">
         <v>5</v>
@@ -1362,7 +1429,7 @@
         <v>5</v>
       </c>
       <c r="BB5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" t="n">
         <v>42</v>
       </c>
       <c r="F6" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" t="n">
-        <v>0.545</v>
+        <v>0.553</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
@@ -1418,13 +1485,13 @@
         <v>0.436</v>
       </c>
       <c r="L6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M6" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="N6" t="n">
-        <v>0.345</v>
+        <v>0.342</v>
       </c>
       <c r="O6" t="n">
         <v>16.3</v>
@@ -1433,7 +1500,7 @@
         <v>21.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R6" t="n">
         <v>12.7</v>
@@ -1451,7 +1518,7 @@
         <v>14.3</v>
       </c>
       <c r="W6" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X6" t="n">
         <v>5.2</v>
@@ -1466,19 +1533,19 @@
         <v>19.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
@@ -1487,10 +1554,10 @@
         <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK6" t="n">
         <v>26</v>
@@ -1502,10 +1569,10 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
         <v>22</v>
@@ -1514,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS6" t="n">
         <v>14</v>
@@ -1532,7 +1599,7 @@
         <v>20</v>
       </c>
       <c r="AX6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY6" t="n">
         <v>22</v>
@@ -1541,10 +1608,10 @@
         <v>11</v>
       </c>
       <c r="BA6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC6" t="n">
         <v>14</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" t="n">
         <v>24</v>
       </c>
       <c r="F7" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" t="n">
-        <v>0.312</v>
+        <v>0.316</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1603,7 +1670,7 @@
         <v>6.8</v>
       </c>
       <c r="M7" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N7" t="n">
         <v>0.349</v>
@@ -1612,10 +1679,10 @@
         <v>17</v>
       </c>
       <c r="P7" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R7" t="n">
         <v>12.3</v>
@@ -1627,7 +1694,7 @@
         <v>40.9</v>
       </c>
       <c r="U7" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V7" t="n">
         <v>14.1</v>
@@ -1642,25 +1709,25 @@
         <v>6.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA7" t="n">
         <v>19.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="AC7" t="n">
         <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
         <v>27</v>
@@ -1696,7 +1763,7 @@
         <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS7" t="n">
         <v>30</v>
@@ -1708,10 +1775,10 @@
         <v>25</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1866,10 +1933,10 @@
         <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP8" t="n">
         <v>25</v>
@@ -1890,7 +1957,7 @@
         <v>6</v>
       </c>
       <c r="AV8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW8" t="n">
         <v>17</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>4.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>4</v>
@@ -2030,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="AH9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2048,7 +2115,7 @@
         <v>19</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO9" t="n">
         <v>6</v>
@@ -2066,13 +2133,13 @@
         <v>11</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU9" t="n">
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
@@ -2084,13 +2151,13 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC9" t="n">
         <v>5</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>26</v>
@@ -2212,7 +2279,7 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
         <v>23</v>
@@ -2230,7 +2297,7 @@
         <v>23</v>
       </c>
       <c r="AN10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
@@ -2245,7 +2312,7 @@
         <v>9</v>
       </c>
       <c r="AS10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT10" t="n">
         <v>14</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -2304,37 +2371,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="n">
         <v>33</v>
       </c>
       <c r="G11" t="n">
-        <v>0.577</v>
+        <v>0.571</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J11" t="n">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="K11" t="n">
         <v>0.457</v>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M11" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.402</v>
+        <v>0.401</v>
       </c>
       <c r="O11" t="n">
         <v>17</v>
@@ -2343,16 +2410,16 @@
         <v>21.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.792</v>
+        <v>0.793</v>
       </c>
       <c r="R11" t="n">
         <v>10.8</v>
       </c>
       <c r="S11" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="T11" t="n">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="U11" t="n">
         <v>22.5</v>
@@ -2376,13 +2443,13 @@
         <v>19.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
@@ -2430,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
         <v>14</v>
@@ -2439,19 +2506,19 @@
         <v>27</v>
       </c>
       <c r="AW11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX11" t="n">
         <v>26</v>
       </c>
       <c r="AY11" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ11" t="n">
         <v>28</v>
       </c>
       <c r="BA11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="n">
         <v>34</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
@@ -2504,7 +2571,7 @@
         <v>38.2</v>
       </c>
       <c r="J12" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.462</v>
@@ -2516,19 +2583,19 @@
         <v>28.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.367</v>
+        <v>0.369</v>
       </c>
       <c r="O12" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P12" t="n">
         <v>25.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S12" t="n">
         <v>32.1</v>
@@ -2543,19 +2610,19 @@
         <v>16.4</v>
       </c>
       <c r="W12" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y12" t="n">
         <v>6</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB12" t="n">
         <v>106.2</v>
@@ -2564,7 +2631,7 @@
         <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>11</v>
@@ -2579,7 +2646,7 @@
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ12" t="n">
         <v>10</v>
@@ -2591,10 +2658,10 @@
         <v>2</v>
       </c>
       <c r="AM12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2621,7 +2688,7 @@
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX12" t="n">
         <v>27</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -2668,22 +2735,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" t="n">
         <v>29</v>
       </c>
       <c r="G13" t="n">
-        <v>0.628</v>
+        <v>0.623</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="J13" t="n">
         <v>80.8</v>
@@ -2692,25 +2759,25 @@
         <v>0.435</v>
       </c>
       <c r="L13" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M13" t="n">
         <v>19.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O13" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P13" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.749</v>
+        <v>0.751</v>
       </c>
       <c r="R13" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S13" t="n">
         <v>33.2</v>
@@ -2719,7 +2786,7 @@
         <v>46.1</v>
       </c>
       <c r="U13" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V13" t="n">
         <v>15</v>
@@ -2734,10 +2801,10 @@
         <v>5.7</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB13" t="n">
         <v>94.7</v>
@@ -2746,7 +2813,7 @@
         <v>4.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
@@ -2758,7 +2825,7 @@
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2779,19 +2846,19 @@
         <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ13" t="n">
         <v>18</v>
       </c>
       <c r="AR13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -2800,10 +2867,10 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AX13" t="n">
         <v>4</v>
@@ -2812,10 +2879,10 @@
         <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB13" t="n">
         <v>22</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2940,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2964,7 +3031,7 @@
         <v>16</v>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ14" t="n">
         <v>26</v>
@@ -2976,7 +3043,7 @@
         <v>21</v>
       </c>
       <c r="AT14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -3032,22 +3099,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" t="n">
         <v>37</v>
       </c>
       <c r="G15" t="n">
-        <v>0.526</v>
+        <v>0.519</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J15" t="n">
         <v>81.09999999999999</v>
@@ -3062,7 +3129,7 @@
         <v>24.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O15" t="n">
         <v>19</v>
@@ -3071,10 +3138,10 @@
         <v>27.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S15" t="n">
         <v>33.1</v>
@@ -3101,34 +3168,34 @@
         <v>18</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>14</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK15" t="n">
         <v>10</v>
@@ -3143,7 +3210,7 @@
         <v>19</v>
       </c>
       <c r="AO15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP15" t="n">
         <v>1</v>
@@ -3158,22 +3225,22 @@
         <v>5</v>
       </c>
       <c r="AT15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
         <v>17</v>
       </c>
       <c r="AV15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX15" t="n">
         <v>15</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
         <v>2</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" t="n">
         <v>25</v>
       </c>
       <c r="G16" t="n">
-        <v>0.679</v>
+        <v>0.675</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J16" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L16" t="n">
         <v>4.6</v>
@@ -3244,31 +3311,31 @@
         <v>13.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.345</v>
+        <v>0.347</v>
       </c>
       <c r="O16" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P16" t="n">
         <v>21.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.776</v>
+        <v>0.778</v>
       </c>
       <c r="R16" t="n">
         <v>12.8</v>
       </c>
       <c r="S16" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T16" t="n">
         <v>42.4</v>
       </c>
       <c r="U16" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V16" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W16" t="n">
         <v>8.6</v>
@@ -3289,13 +3356,13 @@
         <v>93.59999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF16" t="n">
         <v>5</v>
@@ -3307,7 +3374,7 @@
         <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ16" t="n">
         <v>17</v>
@@ -3325,19 +3392,19 @@
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ16" t="n">
         <v>7</v>
       </c>
       <c r="AR16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT16" t="n">
         <v>12</v>
@@ -3346,7 +3413,7 @@
         <v>24</v>
       </c>
       <c r="AV16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW16" t="n">
         <v>4</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>0.792</v>
+        <v>0.789</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3414,37 +3481,37 @@
         <v>38.5</v>
       </c>
       <c r="J17" t="n">
-        <v>77.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.495</v>
+        <v>0.496</v>
       </c>
       <c r="L17" t="n">
         <v>8.5</v>
       </c>
       <c r="M17" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.393</v>
+        <v>0.397</v>
       </c>
       <c r="O17" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P17" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S17" t="n">
         <v>30.1</v>
       </c>
       <c r="T17" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="U17" t="n">
         <v>22.9</v>
@@ -3456,10 +3523,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Z17" t="n">
         <v>18.7</v>
@@ -3468,13 +3535,13 @@
         <v>20.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3501,13 +3568,13 @@
         <v>5</v>
       </c>
       <c r="AM17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN17" t="n">
         <v>2</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
@@ -3519,16 +3586,16 @@
         <v>28</v>
       </c>
       <c r="AS17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW17" t="n">
         <v>3</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" t="n">
         <v>37</v>
       </c>
       <c r="F18" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" t="n">
-        <v>0.481</v>
+        <v>0.487</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
@@ -3596,7 +3663,7 @@
         <v>38.2</v>
       </c>
       <c r="J18" t="n">
-        <v>87.40000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="K18" t="n">
         <v>0.437</v>
@@ -3605,64 +3672,64 @@
         <v>7.1</v>
       </c>
       <c r="M18" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N18" t="n">
         <v>0.359</v>
       </c>
       <c r="O18" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P18" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.74</v>
+        <v>0.741</v>
       </c>
       <c r="R18" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S18" t="n">
         <v>30.8</v>
       </c>
       <c r="T18" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U18" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V18" t="n">
         <v>14.1</v>
       </c>
       <c r="W18" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X18" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>18</v>
       </c>
       <c r="AF18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG18" t="n">
         <v>18</v>
@@ -3671,7 +3738,7 @@
         <v>15</v>
       </c>
       <c r="AI18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
@@ -3707,13 +3774,13 @@
         <v>5</v>
       </c>
       <c r="AU18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW18" t="n">
         <v>9</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>8</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3725,7 +3792,7 @@
         <v>9</v>
       </c>
       <c r="BA18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB18" t="n">
         <v>12</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" t="n">
         <v>29</v>
       </c>
       <c r="F19" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" t="n">
-        <v>0.377</v>
+        <v>0.382</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
@@ -3778,10 +3845,10 @@
         <v>35.8</v>
       </c>
       <c r="J19" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L19" t="n">
         <v>5.4</v>
@@ -3790,7 +3857,7 @@
         <v>17.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.304</v>
+        <v>0.303</v>
       </c>
       <c r="O19" t="n">
         <v>18.6</v>
@@ -3805,16 +3872,16 @@
         <v>12.1</v>
       </c>
       <c r="S19" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T19" t="n">
         <v>42.3</v>
       </c>
       <c r="U19" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V19" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W19" t="n">
         <v>8.4</v>
@@ -3826,28 +3893,28 @@
         <v>6</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA19" t="n">
         <v>22.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
@@ -3856,7 +3923,7 @@
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3889,13 +3956,13 @@
         <v>13</v>
       </c>
       <c r="AU19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX19" t="n">
         <v>18</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" t="n">
         <v>27</v>
       </c>
       <c r="F20" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" t="n">
-        <v>0.346</v>
+        <v>0.351</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3963,16 +4030,16 @@
         <v>80.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L20" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M20" t="n">
         <v>18</v>
       </c>
       <c r="N20" t="n">
-        <v>0.363</v>
+        <v>0.365</v>
       </c>
       <c r="O20" t="n">
         <v>15.2</v>
@@ -3981,7 +4048,7 @@
         <v>19.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.781</v>
+        <v>0.779</v>
       </c>
       <c r="R20" t="n">
         <v>11.7</v>
@@ -3990,7 +4057,7 @@
         <v>29.6</v>
       </c>
       <c r="T20" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U20" t="n">
         <v>21.1</v>
@@ -4008,7 +4075,7 @@
         <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA20" t="n">
         <v>18.5</v>
@@ -4017,25 +4084,25 @@
         <v>94</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
         <v>24</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
@@ -4050,7 +4117,7 @@
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO20" t="n">
         <v>26</v>
@@ -4065,10 +4132,10 @@
         <v>11</v>
       </c>
       <c r="AS20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU20" t="n">
         <v>23</v>
@@ -4095,7 +4162,7 @@
         <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -4124,49 +4191,49 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" t="n">
         <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.662</v>
+        <v>0.658</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J21" t="n">
         <v>81.2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.449</v>
+        <v>0.447</v>
       </c>
       <c r="L21" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="M21" t="n">
         <v>28.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.377</v>
+        <v>0.374</v>
       </c>
       <c r="O21" t="n">
         <v>16.3</v>
       </c>
       <c r="P21" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q21" t="n">
         <v>0.759</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S21" t="n">
         <v>29.6</v>
@@ -4175,13 +4242,13 @@
         <v>40.6</v>
       </c>
       <c r="U21" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="V21" t="n">
         <v>12.1</v>
       </c>
       <c r="W21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X21" t="n">
         <v>3.6</v>
@@ -4190,28 +4257,28 @@
         <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="n">
         <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF21" t="n">
         <v>6</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH21" t="n">
         <v>30</v>
@@ -4223,19 +4290,19 @@
         <v>19</v>
       </c>
       <c r="AK21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
       </c>
       <c r="AM21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP21" t="n">
         <v>16</v>
@@ -4247,7 +4314,7 @@
         <v>18</v>
       </c>
       <c r="AS21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT21" t="n">
         <v>25</v>
@@ -4268,13 +4335,13 @@
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA21" t="n">
         <v>19</v>
       </c>
       <c r="BB21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC21" t="n">
         <v>7</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -4306,49 +4373,49 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
       </c>
       <c r="G22" t="n">
-        <v>0.731</v>
+        <v>0.727</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J22" t="n">
         <v>79</v>
       </c>
       <c r="K22" t="n">
-        <v>0.481</v>
+        <v>0.482</v>
       </c>
       <c r="L22" t="n">
         <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.381</v>
+        <v>0.38</v>
       </c>
       <c r="O22" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="P22" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.829</v>
+        <v>0.828</v>
       </c>
       <c r="R22" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S22" t="n">
         <v>33.2</v>
@@ -4360,7 +4427,7 @@
         <v>21.4</v>
       </c>
       <c r="V22" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W22" t="n">
         <v>8.199999999999999</v>
@@ -4378,16 +4445,16 @@
         <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.8</v>
+        <v>106</v>
       </c>
       <c r="AC22" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="n">
         <v>3</v>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
@@ -4429,7 +4496,7 @@
         <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
         <v>6</v>
@@ -4453,10 +4520,10 @@
         <v>18</v>
       </c>
       <c r="BA22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4578,7 +4645,7 @@
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
         <v>10</v>
@@ -4587,7 +4654,7 @@
         <v>4</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
@@ -4608,7 +4675,7 @@
         <v>12</v>
       </c>
       <c r="AR23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS23" t="n">
         <v>9</v>
@@ -4617,7 +4684,7 @@
         <v>11</v>
       </c>
       <c r="AU23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV23" t="n">
         <v>11</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -4670,70 +4737,70 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" t="n">
         <v>31</v>
       </c>
       <c r="F24" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G24" t="n">
-        <v>0.403</v>
+        <v>0.408</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J24" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L24" t="n">
         <v>6.3</v>
       </c>
       <c r="M24" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="O24" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="P24" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.723</v>
+        <v>0.722</v>
       </c>
       <c r="R24" t="n">
         <v>10.9</v>
       </c>
       <c r="S24" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T24" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U24" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V24" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W24" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X24" t="n">
         <v>4.7</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z24" t="n">
         <v>18.5</v>
@@ -4742,13 +4809,13 @@
         <v>16.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.6</v>
+        <v>-3.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4763,13 +4830,13 @@
         <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ24" t="n">
         <v>7</v>
       </c>
       <c r="AK24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4778,7 +4845,7 @@
         <v>25</v>
       </c>
       <c r="AN24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,16 +4857,16 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS24" t="n">
         <v>15</v>
       </c>
       <c r="AT24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4811,7 +4878,7 @@
         <v>20</v>
       </c>
       <c r="AY24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ24" t="n">
         <v>5</v>
@@ -4823,7 +4890,7 @@
         <v>29</v>
       </c>
       <c r="BC24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" t="n">
         <v>23</v>
       </c>
       <c r="F25" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G25" t="n">
-        <v>0.295</v>
+        <v>0.299</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
@@ -4870,7 +4937,7 @@
         <v>37.2</v>
       </c>
       <c r="J25" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K25" t="n">
         <v>0.442</v>
@@ -4879,10 +4946,10 @@
         <v>5.7</v>
       </c>
       <c r="M25" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.327</v>
+        <v>0.325</v>
       </c>
       <c r="O25" t="n">
         <v>14.7</v>
@@ -4891,7 +4958,7 @@
         <v>19.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R25" t="n">
         <v>11.7</v>
@@ -4903,10 +4970,10 @@
         <v>41.5</v>
       </c>
       <c r="U25" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V25" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W25" t="n">
         <v>8</v>
@@ -4921,16 +4988,16 @@
         <v>20.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>-6.6</v>
+        <v>-6.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>28</v>
@@ -4945,7 +5012,7 @@
         <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ25" t="n">
         <v>5</v>
@@ -4954,7 +5021,7 @@
         <v>23</v>
       </c>
       <c r="AL25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM25" t="n">
         <v>24</v>
@@ -4972,31 +5039,31 @@
         <v>20</v>
       </c>
       <c r="AR25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT25" t="n">
         <v>17</v>
       </c>
       <c r="AU25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV25" t="n">
         <v>29</v>
       </c>
       <c r="AW25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY25" t="n">
         <v>17</v>
       </c>
       <c r="AZ25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5124,7 +5191,7 @@
         <v>19</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>18</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5324,7 +5391,7 @@
         <v>11</v>
       </c>
       <c r="AN27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO27" t="n">
         <v>7</v>
@@ -5342,10 +5409,10 @@
         <v>28</v>
       </c>
       <c r="AT27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV27" t="n">
         <v>17</v>
@@ -5366,7 +5433,7 @@
         <v>12</v>
       </c>
       <c r="BB27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC27" t="n">
         <v>27</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5488,13 +5555,13 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5503,7 +5570,7 @@
         <v>6</v>
       </c>
       <c r="AM28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN28" t="n">
         <v>4</v>
@@ -5533,7 +5600,7 @@
         <v>16</v>
       </c>
       <c r="AW28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX28" t="n">
         <v>10</v>
@@ -5545,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" t="n">
         <v>48</v>
       </c>
       <c r="G29" t="n">
-        <v>0.385</v>
+        <v>0.377</v>
       </c>
       <c r="H29" t="n">
         <v>48.8</v>
@@ -5598,52 +5665,52 @@
         <v>36.3</v>
       </c>
       <c r="J29" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L29" t="n">
         <v>6.9</v>
       </c>
       <c r="M29" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N29" t="n">
         <v>0.339</v>
       </c>
       <c r="O29" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P29" t="n">
         <v>22.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.787</v>
+        <v>0.786</v>
       </c>
       <c r="R29" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S29" t="n">
         <v>29.3</v>
       </c>
       <c r="T29" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="U29" t="n">
         <v>21.5</v>
       </c>
       <c r="V29" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W29" t="n">
         <v>7.3</v>
       </c>
       <c r="X29" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z29" t="n">
         <v>22.7</v>
@@ -5658,16 +5725,16 @@
         <v>-2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
       </c>
       <c r="AF29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
@@ -5676,10 +5743,10 @@
         <v>21</v>
       </c>
       <c r="AJ29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL29" t="n">
         <v>15</v>
@@ -5691,7 +5758,7 @@
         <v>26</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5700,7 +5767,7 @@
         <v>5</v>
       </c>
       <c r="AR29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
@@ -5712,7 +5779,7 @@
         <v>20</v>
       </c>
       <c r="AV29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW29" t="n">
         <v>19</v>
@@ -5721,7 +5788,7 @@
         <v>19</v>
       </c>
       <c r="AY29" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5733,7 +5800,7 @@
         <v>16</v>
       </c>
       <c r="BC29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" t="n">
         <v>41</v>
       </c>
       <c r="F30" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" t="n">
-        <v>0.519</v>
+        <v>0.526</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5783,34 +5850,34 @@
         <v>82.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L30" t="n">
         <v>6.2</v>
       </c>
       <c r="M30" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N30" t="n">
-        <v>0.365</v>
+        <v>0.367</v>
       </c>
       <c r="O30" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P30" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q30" t="n">
         <v>0.763</v>
       </c>
       <c r="R30" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S30" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T30" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U30" t="n">
         <v>22.8</v>
@@ -5822,7 +5889,7 @@
         <v>8.4</v>
       </c>
       <c r="X30" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y30" t="n">
         <v>5.9</v>
@@ -5834,10 +5901,10 @@
         <v>20.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -5846,10 +5913,10 @@
         <v>14</v>
       </c>
       <c r="AF30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
         <v>7</v>
@@ -5867,13 +5934,13 @@
         <v>24</v>
       </c>
       <c r="AM30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN30" t="n">
         <v>9</v>
       </c>
       <c r="AO30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP30" t="n">
         <v>10</v>
@@ -5882,22 +5949,22 @@
         <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT30" t="n">
         <v>15</v>
       </c>
       <c r="AU30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
@@ -5915,7 +5982,7 @@
         <v>13</v>
       </c>
       <c r="BC30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
@@ -5944,19 +6011,19 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" t="n">
         <v>29</v>
       </c>
       <c r="F31" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G31" t="n">
-        <v>0.372</v>
+        <v>0.377</v>
       </c>
       <c r="H31" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I31" t="n">
         <v>35.4</v>
@@ -5971,16 +6038,16 @@
         <v>6.7</v>
       </c>
       <c r="M31" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="N31" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O31" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="P31" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q31" t="n">
         <v>0.734</v>
@@ -5989,13 +6056,13 @@
         <v>10.9</v>
       </c>
       <c r="S31" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T31" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U31" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V31" t="n">
         <v>15.1</v>
@@ -6004,43 +6071,43 @@
         <v>7.2</v>
       </c>
       <c r="X31" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y31" t="n">
         <v>4.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.2</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-2.4</v>
+        <v>-2.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF31" t="n">
         <v>22</v>
       </c>
-      <c r="AF31" t="n">
-        <v>23</v>
-      </c>
       <c r="AG31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI31" t="n">
         <v>28</v>
       </c>
       <c r="AJ31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK31" t="n">
         <v>28</v>
@@ -6052,10 +6119,10 @@
         <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP31" t="n">
         <v>18</v>
@@ -6076,7 +6143,7 @@
         <v>19</v>
       </c>
       <c r="AV31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AW31" t="n">
         <v>22</v>
@@ -6088,16 +6155,16 @@
         <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA31" t="n">
         <v>23</v>
       </c>
       <c r="BB31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-9-2012-13</t>
+          <t>2013-04-09</t>
         </is>
       </c>
     </row>
